--- a/Modelo Classificação.xlsx
+++ b/Modelo Classificação.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrb/Desktop/Arquivos/GitHub-Projects/MBA-USP/Untitled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6214E07-6987-BD46-8395-712599832614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E1B15-E3D9-4A4D-A084-185AAEA24B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20220" activeTab="3" xr2:uid="{7CB3B05D-B5B2-D347-AFF0-FFF50B50CBA7}"/>
+    <workbookView xWindow="740" yWindow="860" windowWidth="34200" windowHeight="20220" activeTab="4" xr2:uid="{7CB3B05D-B5B2-D347-AFF0-FFF50B50CBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Crédito Varejo" sheetId="16" r:id="rId1"/>
     <sheet name="Normalização de Variáveis" sheetId="1" r:id="rId2"/>
     <sheet name="Regressão Logística - Conceito" sheetId="4" r:id="rId3"/>
     <sheet name="KNN - Lógica" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
   <si>
     <t>Empresas</t>
   </si>
@@ -521,6 +521,30 @@
   </si>
   <si>
     <t>R,R,R,B,B</t>
+  </si>
+  <si>
+    <t>(40-6)^2</t>
+  </si>
+  <si>
+    <t>(40-11)^2</t>
+  </si>
+  <si>
+    <t>Renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade </t>
+  </si>
+  <si>
+    <t>Homem</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Bom</t>
   </si>
 </sst>
 </file>
@@ -613,7 +637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +665,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +739,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,9 +763,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -772,12 +811,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,6 +819,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5716,19 +5761,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="KNN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6075,20 +6107,20 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
         <v>20</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <f>-1.96591-2.95095*C2+0.116143*D2+1.30123*E2</f>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>1/(1+EXP(-F2))</f>
         <v>0.58830191507575313</v>
       </c>
@@ -6121,7 +6153,7 @@
         <f t="shared" ref="F3:F66" si="0">-1.96591-2.95095*C3+0.116143*D3+1.30123*E3</f>
         <v>3.2841820000000004</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <f t="shared" ref="G3:G66" si="1">1/(1+EXP(-F3))</f>
         <v>0.96388215580922398</v>
       </c>
@@ -6133,7 +6165,7 @@
         <f t="shared" ref="I3:I66" si="3">IF(H3=B3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -6155,7 +6187,7 @@
         <f t="shared" si="0"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <f t="shared" si="1"/>
         <v>0.8549944549421129</v>
       </c>
@@ -6188,7 +6220,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -6221,7 +6253,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -6254,7 +6286,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -6287,7 +6319,7 @@
         <f t="shared" si="0"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <f t="shared" si="1"/>
         <v>0.66937928490055754</v>
       </c>
@@ -6320,7 +6352,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -6353,7 +6385,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -6386,7 +6418,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -6419,7 +6451,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -6452,7 +6484,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -6485,7 +6517,7 @@
         <f t="shared" si="0"/>
         <v>-0.94434099999999987</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <f t="shared" si="1"/>
         <v>0.28002431538746936</v>
       </c>
@@ -6518,7 +6550,7 @@
         <f t="shared" si="0"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <f t="shared" si="1"/>
         <v>0.83678830269861859</v>
       </c>
@@ -6551,7 +6583,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -6584,7 +6616,7 @@
         <f t="shared" si="0"/>
         <v>3.864897</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="30">
         <f t="shared" si="1"/>
         <v>0.97946542726637165</v>
       </c>
@@ -6617,7 +6649,7 @@
         <f t="shared" si="0"/>
         <v>2.4475239999999996</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="30">
         <f t="shared" si="1"/>
         <v>0.92038019707562813</v>
       </c>
@@ -6650,7 +6682,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="30">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -6683,7 +6715,7 @@
         <f t="shared" si="0"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="30">
         <f t="shared" si="1"/>
         <v>0.61611556625706798</v>
       </c>
@@ -6716,7 +6748,7 @@
         <f t="shared" si="0"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <f t="shared" si="1"/>
         <v>0.93723091397347036</v>
       </c>
@@ -6749,7 +6781,7 @@
         <f t="shared" si="0"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="30">
         <f t="shared" si="1"/>
         <v>0.86608862023115429</v>
       </c>
@@ -6782,7 +6814,7 @@
         <f t="shared" si="0"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="30">
         <f t="shared" si="1"/>
         <v>0.95486431170186958</v>
       </c>
@@ -6815,7 +6847,7 @@
         <f t="shared" si="0"/>
         <v>3.6326109999999998</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <f t="shared" si="1"/>
         <v>0.97423438336108403</v>
       </c>
@@ -6848,7 +6880,7 @@
         <f t="shared" si="0"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <f t="shared" si="1"/>
         <v>0.93723091397347036</v>
       </c>
@@ -6860,7 +6892,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -6882,7 +6914,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="30">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -6894,7 +6926,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -6916,7 +6948,7 @@
         <f t="shared" si="0"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <f t="shared" si="1"/>
         <v>0.93723091397347036</v>
       </c>
@@ -6949,7 +6981,7 @@
         <f t="shared" si="0"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <f t="shared" si="1"/>
         <v>0.89309496480980888</v>
       </c>
@@ -6982,7 +7014,7 @@
         <f t="shared" si="0"/>
         <v>1.5183799999999996</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="30">
         <f t="shared" si="1"/>
         <v>0.82029980347286147</v>
       </c>
@@ -7015,7 +7047,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -7054,7 +7086,7 @@
         <f t="shared" si="0"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="30">
         <f t="shared" si="1"/>
         <v>0.5311256997695083</v>
       </c>
@@ -7069,14 +7101,14 @@
       <c r="L31" t="s">
         <v>121</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="31">
         <f>M32/M33</f>
         <v>0.82777777777777772</v>
       </c>
-      <c r="P31" s="33" t="s">
+      <c r="P31" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="33">
         <f>26/180</f>
         <v>0.14444444444444443</v>
       </c>
@@ -7101,7 +7133,7 @@
         <f t="shared" si="0"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <f t="shared" si="1"/>
         <v>0.5311256997695083</v>
       </c>
@@ -7120,10 +7152,10 @@
         <f>SUM(I2:I181)</f>
         <v>149</v>
       </c>
-      <c r="P32" s="33" t="s">
+      <c r="P32" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="Q32" s="35">
+      <c r="Q32" s="34">
         <f>5/180</f>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -7148,7 +7180,7 @@
         <f t="shared" si="0"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <f t="shared" si="1"/>
         <v>0.90368832669399335</v>
       </c>
@@ -7187,7 +7219,7 @@
         <f t="shared" si="0"/>
         <v>3.5164680000000006</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="30">
         <f t="shared" si="1"/>
         <v>0.97115271917830104</v>
       </c>
@@ -7223,7 +7255,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="30">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -7265,7 +7297,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -7283,7 +7315,7 @@
       <c r="M36">
         <v>125</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="16">
         <f>M36/M37</f>
         <v>0.82781456953642385</v>
       </c>
@@ -7314,7 +7346,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="30">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -7357,7 +7389,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="30">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -7390,7 +7422,7 @@
         <f t="shared" si="0"/>
         <v>2.5873239999999997</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="30">
         <f t="shared" si="1"/>
         <v>0.93004130482566627</v>
       </c>
@@ -7408,7 +7440,7 @@
       <c r="M39">
         <v>24</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="16">
         <f>M39/M40</f>
         <v>0.82758620689655171</v>
       </c>
@@ -7433,7 +7465,7 @@
         <f t="shared" si="0"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="30">
         <f t="shared" si="1"/>
         <v>0.95486431170186958</v>
       </c>
@@ -7469,7 +7501,7 @@
         <f t="shared" si="0"/>
         <v>3.2841820000000004</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="30">
         <f t="shared" si="1"/>
         <v>0.96388215580922398</v>
       </c>
@@ -7502,7 +7534,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="30">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -7535,7 +7567,7 @@
         <f t="shared" si="0"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="30">
         <f t="shared" si="1"/>
         <v>0.58830191507575313</v>
       </c>
@@ -7547,7 +7579,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L43" s="30" t="s">
+      <c r="L43" s="29" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7571,7 +7603,7 @@
         <f t="shared" si="0"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="30">
         <f t="shared" si="1"/>
         <v>0.89309496480980888</v>
       </c>
@@ -7583,7 +7615,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L44" s="25" t="s">
+      <c r="L44" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7607,7 +7639,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="30">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -7640,7 +7672,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="30">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -7676,7 +7708,7 @@
         <f t="shared" si="0"/>
         <v>2.5873239999999997</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="30">
         <f t="shared" si="1"/>
         <v>0.93004130482566627</v>
       </c>
@@ -7731,7 +7763,7 @@
         <f t="shared" si="0"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="30">
         <f t="shared" si="1"/>
         <v>0.86608862023115429</v>
       </c>
@@ -7749,10 +7781,10 @@
       <c r="N48" t="s">
         <v>73</v>
       </c>
-      <c r="R48" s="14">
-        <v>1</v>
-      </c>
-      <c r="S48" s="14" t="s">
+      <c r="R48" s="13">
+        <v>1</v>
+      </c>
+      <c r="S48" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7776,7 +7808,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="30">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -7788,7 +7820,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M49" s="26">
+      <c r="M49" s="25">
         <f>M47/M48</f>
         <v>0.82777777777777772</v>
       </c>
@@ -7822,7 +7854,7 @@
         <f t="shared" si="0"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="30">
         <f t="shared" si="1"/>
         <v>0.90368832669399335</v>
       </c>
@@ -7834,7 +7866,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="16" t="s">
+      <c r="Q50" s="15" t="s">
         <v>108</v>
       </c>
       <c r="U50" t="s">
@@ -7861,7 +7893,7 @@
         <f t="shared" si="0"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="30">
         <f t="shared" si="1"/>
         <v>0.8814892361184159</v>
       </c>
@@ -7873,7 +7905,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q51" s="16" t="s">
+      <c r="Q51" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7897,7 +7929,7 @@
         <f t="shared" si="0"/>
         <v>-2.245571</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="30">
         <f t="shared" si="1"/>
         <v>9.5732186622230264E-2</v>
       </c>
@@ -7930,7 +7962,7 @@
         <f t="shared" si="0"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="30">
         <f t="shared" si="1"/>
         <v>0.6945593229186573</v>
       </c>
@@ -7966,7 +7998,7 @@
         <f t="shared" si="0"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="30">
         <f t="shared" si="1"/>
         <v>0.8814892361184159</v>
       </c>
@@ -8008,7 +8040,7 @@
         <f t="shared" si="0"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="30">
         <f t="shared" si="1"/>
         <v>0.95486431170186958</v>
       </c>
@@ -8047,7 +8079,7 @@
         <f t="shared" si="0"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="30">
         <f t="shared" si="1"/>
         <v>0.58830191507575313</v>
       </c>
@@ -8080,7 +8112,7 @@
         <f t="shared" si="0"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="30">
         <f t="shared" si="1"/>
         <v>0.86608862023115429</v>
       </c>
@@ -8116,7 +8148,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G58" s="31">
+      <c r="G58" s="30">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -8152,7 +8184,7 @@
         <f t="shared" si="0"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="30">
         <f t="shared" si="1"/>
         <v>0.83678830269861859</v>
       </c>
@@ -8185,7 +8217,7 @@
         <f t="shared" si="0"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="30">
         <f t="shared" si="1"/>
         <v>0.8549944549421129</v>
       </c>
@@ -8218,7 +8250,7 @@
         <f t="shared" si="0"/>
         <v>1.4258940000000002</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="30">
         <f t="shared" si="1"/>
         <v>0.8062607471053419</v>
       </c>
@@ -8251,7 +8283,7 @@
         <f t="shared" si="0"/>
         <v>1.4258940000000002</v>
       </c>
-      <c r="G62" s="31">
+      <c r="G62" s="30">
         <f t="shared" si="1"/>
         <v>0.8062607471053419</v>
       </c>
@@ -8284,7 +8316,7 @@
         <f t="shared" si="0"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G63" s="30">
         <f t="shared" si="1"/>
         <v>0.89309496480980888</v>
       </c>
@@ -8317,7 +8349,7 @@
         <f t="shared" si="0"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G64" s="30">
         <f t="shared" si="1"/>
         <v>0.71862775708849003</v>
       </c>
@@ -8350,7 +8382,7 @@
         <f t="shared" si="0"/>
         <v>1.402237</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G65" s="30">
         <f t="shared" si="1"/>
         <v>0.80253862672853948</v>
       </c>
@@ -8383,7 +8415,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G66" s="31">
+      <c r="G66" s="30">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -8416,7 +8448,7 @@
         <f t="shared" ref="F67:F130" si="4">-1.96591-2.95095*C67+0.116143*D67+1.30123*E67</f>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G67" s="31">
+      <c r="G67" s="30">
         <f t="shared" ref="G67:G130" si="5">1/(1+EXP(-F67))</f>
         <v>0.61611556625706798</v>
       </c>
@@ -8449,7 +8481,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G68" s="31">
+      <c r="G68" s="30">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -8482,7 +8514,7 @@
         <f t="shared" si="4"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G69" s="31">
+      <c r="G69" s="30">
         <f t="shared" si="5"/>
         <v>0.93723091397347036</v>
       </c>
@@ -8515,7 +8547,7 @@
         <f t="shared" si="4"/>
         <v>2.912096</v>
       </c>
-      <c r="G70" s="31">
+      <c r="G70" s="30">
         <f t="shared" si="5"/>
         <v>0.94844115643506999</v>
       </c>
@@ -8548,7 +8580,7 @@
         <f t="shared" si="4"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G71" s="31">
+      <c r="G71" s="30">
         <f t="shared" si="5"/>
         <v>0.66937928490055754</v>
       </c>
@@ -8581,7 +8613,7 @@
         <f t="shared" si="4"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G72" s="31">
+      <c r="G72" s="30">
         <f t="shared" si="5"/>
         <v>0.8814892361184159</v>
       </c>
@@ -8614,7 +8646,7 @@
         <f t="shared" si="4"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G73" s="31">
+      <c r="G73" s="30">
         <f t="shared" si="5"/>
         <v>0.95486431170186958</v>
       </c>
@@ -8647,7 +8679,7 @@
         <f t="shared" si="4"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G74" s="31">
+      <c r="G74" s="30">
         <f t="shared" si="5"/>
         <v>0.89309496480980888</v>
       </c>
@@ -8680,7 +8712,7 @@
         <f t="shared" si="4"/>
         <v>2.912096</v>
       </c>
-      <c r="G75" s="31">
+      <c r="G75" s="30">
         <f t="shared" si="5"/>
         <v>0.94844115643506999</v>
       </c>
@@ -8713,7 +8745,7 @@
         <f t="shared" si="4"/>
         <v>3.5164680000000006</v>
       </c>
-      <c r="G76" s="31">
+      <c r="G76" s="30">
         <f t="shared" si="5"/>
         <v>0.97115271917830104</v>
       </c>
@@ -8746,7 +8778,7 @@
         <f t="shared" si="4"/>
         <v>0.24080699999999977</v>
       </c>
-      <c r="G77" s="31">
+      <c r="G77" s="30">
         <f t="shared" si="5"/>
         <v>0.55991251213744808</v>
       </c>
@@ -8779,7 +8811,7 @@
         <f t="shared" si="4"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G78" s="30">
         <f t="shared" si="5"/>
         <v>0.74150546898289438</v>
       </c>
@@ -8812,7 +8844,7 @@
         <f t="shared" si="4"/>
         <v>3.1680390000000003</v>
       </c>
-      <c r="G79" s="31">
+      <c r="G79" s="30">
         <f t="shared" si="5"/>
         <v>0.9596136539161173</v>
       </c>
@@ -8845,7 +8877,7 @@
         <f t="shared" si="4"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G80" s="30">
         <f t="shared" si="5"/>
         <v>0.8549944549421129</v>
       </c>
@@ -8878,7 +8910,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G81" s="30">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -8911,7 +8943,7 @@
         <f t="shared" si="4"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G82" s="30">
         <f t="shared" si="5"/>
         <v>0.8814892361184159</v>
       </c>
@@ -8944,7 +8976,7 @@
         <f t="shared" si="4"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G83" s="30">
         <f t="shared" si="5"/>
         <v>0.86608862023115429</v>
       </c>
@@ -8977,7 +9009,7 @@
         <f t="shared" si="4"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G84" s="31">
+      <c r="G84" s="30">
         <f t="shared" si="5"/>
         <v>0.83678830269861859</v>
       </c>
@@ -9010,7 +9042,7 @@
         <f t="shared" si="4"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G85" s="30">
         <f t="shared" si="5"/>
         <v>0.61611556625706798</v>
       </c>
@@ -9043,7 +9075,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G86" s="31">
+      <c r="G86" s="30">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -9076,7 +9108,7 @@
         <f t="shared" si="4"/>
         <v>3.1680390000000003</v>
       </c>
-      <c r="G87" s="31">
+      <c r="G87" s="30">
         <f t="shared" si="5"/>
         <v>0.9596136539161173</v>
       </c>
@@ -9109,7 +9141,7 @@
         <f t="shared" si="4"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G88" s="31">
+      <c r="G88" s="30">
         <f t="shared" si="5"/>
         <v>0.58830191507575313</v>
       </c>
@@ -9142,7 +9174,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G89" s="31">
+      <c r="G89" s="30">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -9175,7 +9207,7 @@
         <f t="shared" si="4"/>
         <v>2.3313809999999995</v>
       </c>
-      <c r="G90" s="31">
+      <c r="G90" s="30">
         <f t="shared" si="5"/>
         <v>0.91144286719270828</v>
       </c>
@@ -9208,7 +9240,7 @@
         <f t="shared" si="4"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G91" s="30">
         <f t="shared" si="5"/>
         <v>0.66937928490055754</v>
       </c>
@@ -9241,7 +9273,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G92" s="31">
+      <c r="G92" s="30">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -9274,7 +9306,7 @@
         <f t="shared" si="4"/>
         <v>0.58923599999999965</v>
       </c>
-      <c r="G93" s="31">
+      <c r="G93" s="30">
         <f t="shared" si="5"/>
         <v>0.64318982942402791</v>
       </c>
@@ -9307,7 +9339,7 @@
         <f t="shared" si="4"/>
         <v>-1.2927699999999998</v>
       </c>
-      <c r="G94" s="31">
+      <c r="G94" s="30">
         <f t="shared" si="5"/>
         <v>0.21538432862022705</v>
       </c>
@@ -9340,7 +9372,7 @@
         <f t="shared" si="4"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G95" s="31">
+      <c r="G95" s="30">
         <f t="shared" si="5"/>
         <v>0.91333384243149596</v>
       </c>
@@ -9373,7 +9405,7 @@
         <f t="shared" si="4"/>
         <v>4.5617549999999998</v>
       </c>
-      <c r="G96" s="31">
+      <c r="G96" s="30">
         <f t="shared" si="5"/>
         <v>0.98966422969810819</v>
       </c>
@@ -9406,7 +9438,7 @@
         <f t="shared" si="4"/>
         <v>1.5183799999999996</v>
       </c>
-      <c r="G97" s="31">
+      <c r="G97" s="30">
         <f t="shared" si="5"/>
         <v>0.82029980347286147</v>
       </c>
@@ -9439,7 +9471,7 @@
         <f t="shared" si="4"/>
         <v>1.5183799999999996</v>
       </c>
-      <c r="G98" s="31">
+      <c r="G98" s="30">
         <f t="shared" si="5"/>
         <v>0.82029980347286147</v>
       </c>
@@ -9472,7 +9504,7 @@
         <f t="shared" si="4"/>
         <v>1.65818</v>
       </c>
-      <c r="G99" s="31">
+      <c r="G99" s="30">
         <f t="shared" si="5"/>
         <v>0.83999353839886493</v>
       </c>
@@ -9505,7 +9537,7 @@
         <f t="shared" si="4"/>
         <v>1.65818</v>
       </c>
-      <c r="G100" s="31">
+      <c r="G100" s="30">
         <f t="shared" si="5"/>
         <v>0.83999353839886493</v>
       </c>
@@ -9538,7 +9570,7 @@
         <f t="shared" si="4"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G101" s="31">
+      <c r="G101" s="30">
         <f t="shared" si="5"/>
         <v>0.83678830269861859</v>
       </c>
@@ -9571,7 +9603,7 @@
         <f t="shared" si="4"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G102" s="31">
+      <c r="G102" s="30">
         <f t="shared" si="5"/>
         <v>0.90368832669399335</v>
       </c>
@@ -9604,7 +9636,7 @@
         <f t="shared" si="4"/>
         <v>-0.71205499999999966</v>
       </c>
-      <c r="G103" s="31">
+      <c r="G103" s="30">
         <f t="shared" si="5"/>
         <v>0.32914491942336765</v>
       </c>
@@ -9637,7 +9669,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G104" s="31">
+      <c r="G104" s="30">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -9670,7 +9702,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G105" s="31">
+      <c r="G105" s="30">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -9703,7 +9735,7 @@
         <f t="shared" si="4"/>
         <v>1.1699509999999997</v>
       </c>
-      <c r="G106" s="31">
+      <c r="G106" s="30">
         <f t="shared" si="5"/>
         <v>0.76313615863231865</v>
       </c>
@@ -9736,7 +9768,7 @@
         <f t="shared" si="4"/>
         <v>-1.8971419999999997</v>
       </c>
-      <c r="G107" s="31">
+      <c r="G107" s="30">
         <f t="shared" si="5"/>
         <v>0.13043228564064233</v>
       </c>
@@ -9769,7 +9801,7 @@
         <f t="shared" si="4"/>
         <v>1.402237</v>
       </c>
-      <c r="G108" s="31">
+      <c r="G108" s="30">
         <f t="shared" si="5"/>
         <v>0.80253862672853948</v>
       </c>
@@ -9802,7 +9834,7 @@
         <f t="shared" si="4"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G109" s="31">
+      <c r="G109" s="30">
         <f t="shared" si="5"/>
         <v>0.66937928490055754</v>
       </c>
@@ -9835,7 +9867,7 @@
         <f t="shared" si="4"/>
         <v>1.5420369999999999</v>
       </c>
-      <c r="G110" s="31">
+      <c r="G110" s="30">
         <f t="shared" si="5"/>
         <v>0.82376064998864795</v>
       </c>
@@ -9868,7 +9900,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G111" s="31">
+      <c r="G111" s="30">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -9901,7 +9933,7 @@
         <f t="shared" si="4"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G112" s="31">
+      <c r="G112" s="30">
         <f t="shared" si="5"/>
         <v>0.86608862023115429</v>
       </c>
@@ -9934,7 +9966,7 @@
         <f t="shared" si="4"/>
         <v>2.0990950000000002</v>
       </c>
-      <c r="G113" s="31">
+      <c r="G113" s="30">
         <f t="shared" si="5"/>
         <v>0.89081518647373215</v>
       </c>
@@ -9967,7 +9999,7 @@
         <f t="shared" si="4"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G114" s="31">
+      <c r="G114" s="30">
         <f t="shared" si="5"/>
         <v>0.9437263583123161</v>
       </c>
@@ -10000,7 +10032,7 @@
         <f t="shared" si="4"/>
         <v>1.982952</v>
       </c>
-      <c r="G115" s="31">
+      <c r="G115" s="30">
         <f t="shared" si="5"/>
         <v>0.87899549540192146</v>
       </c>
@@ -10033,7 +10065,7 @@
         <f t="shared" si="4"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G116" s="31">
+      <c r="G116" s="30">
         <f t="shared" si="5"/>
         <v>0.8549944549421129</v>
       </c>
@@ -10066,7 +10098,7 @@
         <f t="shared" si="4"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G117" s="31">
+      <c r="G117" s="30">
         <f t="shared" si="5"/>
         <v>0.93723091397347036</v>
       </c>
@@ -10099,7 +10131,7 @@
         <f t="shared" si="4"/>
         <v>5.1424700000000003</v>
       </c>
-      <c r="G118" s="31">
+      <c r="G118" s="30">
         <f t="shared" si="5"/>
         <v>0.99419070601994397</v>
       </c>
@@ -10132,7 +10164,7 @@
         <f t="shared" si="4"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G119" s="31">
+      <c r="G119" s="30">
         <f t="shared" si="5"/>
         <v>0.9437263583123161</v>
       </c>
@@ -10165,7 +10197,7 @@
         <f t="shared" si="4"/>
         <v>3.9810400000000001</v>
       </c>
-      <c r="G120" s="31">
+      <c r="G120" s="30">
         <f t="shared" si="5"/>
         <v>0.98167582661085284</v>
       </c>
@@ -10198,7 +10230,7 @@
         <f t="shared" si="4"/>
         <v>5.723185</v>
       </c>
-      <c r="G121" s="31">
+      <c r="G121" s="30">
         <f t="shared" si="5"/>
         <v>0.99674137173303101</v>
       </c>
@@ -10231,7 +10263,7 @@
         <f t="shared" si="4"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G122" s="31">
+      <c r="G122" s="30">
         <f t="shared" si="5"/>
         <v>0.8549944549421129</v>
       </c>
@@ -10264,7 +10296,7 @@
         <f t="shared" si="4"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G123" s="31">
+      <c r="G123" s="30">
         <f t="shared" si="5"/>
         <v>0.92209664362658161</v>
       </c>
@@ -10297,7 +10329,7 @@
         <f t="shared" si="4"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G124" s="31">
+      <c r="G124" s="30">
         <f t="shared" si="5"/>
         <v>0.86880865445284661</v>
       </c>
@@ -10330,7 +10362,7 @@
         <f t="shared" si="4"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G125" s="31">
+      <c r="G125" s="30">
         <f t="shared" si="5"/>
         <v>0.8814892361184159</v>
       </c>
@@ -10363,7 +10395,7 @@
         <f t="shared" si="4"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G126" s="31">
+      <c r="G126" s="30">
         <f t="shared" si="5"/>
         <v>0.91333384243149596</v>
       </c>
@@ -10396,7 +10428,7 @@
         <f t="shared" si="4"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G127" s="31">
+      <c r="G127" s="30">
         <f t="shared" si="5"/>
         <v>0.95486431170186958</v>
       </c>
@@ -10429,7 +10461,7 @@
         <f t="shared" si="4"/>
         <v>1.982952</v>
       </c>
-      <c r="G128" s="31">
+      <c r="G128" s="30">
         <f t="shared" si="5"/>
         <v>0.87899549540192146</v>
       </c>
@@ -10462,7 +10494,7 @@
         <f t="shared" si="4"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G129" s="31">
+      <c r="G129" s="30">
         <f t="shared" si="5"/>
         <v>0.95486431170186958</v>
       </c>
@@ -10495,7 +10527,7 @@
         <f t="shared" si="4"/>
         <v>2.0990950000000002</v>
       </c>
-      <c r="G130" s="31">
+      <c r="G130" s="30">
         <f t="shared" si="5"/>
         <v>0.89081518647373215</v>
       </c>
@@ -10528,7 +10560,7 @@
         <f t="shared" ref="F131:F181" si="8">-1.96591-2.95095*C131+0.116143*D131+1.30123*E131</f>
         <v>3.3766679999999996</v>
       </c>
-      <c r="G131" s="31">
+      <c r="G131" s="30">
         <f t="shared" ref="G131:G181" si="9">1/(1+EXP(-F131))</f>
         <v>0.96696734155512321</v>
       </c>
@@ -10561,7 +10593,7 @@
         <f t="shared" si="8"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G132" s="31">
+      <c r="G132" s="30">
         <f t="shared" si="9"/>
         <v>0.90368832669399335</v>
       </c>
@@ -10594,7 +10626,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G133" s="31">
+      <c r="G133" s="30">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -10627,7 +10659,7 @@
         <f t="shared" si="8"/>
         <v>0.44937500000000052</v>
       </c>
-      <c r="G134" s="31">
+      <c r="G134" s="30">
         <f t="shared" si="9"/>
         <v>0.61049062432783108</v>
       </c>
@@ -10660,7 +10692,7 @@
         <f t="shared" si="8"/>
         <v>-1.8971419999999997</v>
       </c>
-      <c r="G135" s="31">
+      <c r="G135" s="30">
         <f t="shared" si="9"/>
         <v>0.13043228564064233</v>
       </c>
@@ -10693,7 +10725,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G136" s="31">
+      <c r="G136" s="30">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -10726,7 +10758,7 @@
         <f t="shared" si="8"/>
         <v>1.2860939999999998</v>
       </c>
-      <c r="G137" s="31">
+      <c r="G137" s="30">
         <f t="shared" si="9"/>
         <v>0.78348532440493124</v>
       </c>
@@ -10759,7 +10791,7 @@
         <f t="shared" si="8"/>
         <v>1.2860939999999998</v>
       </c>
-      <c r="G138" s="31">
+      <c r="G138" s="30">
         <f t="shared" si="9"/>
         <v>0.78348532440493124</v>
       </c>
@@ -10792,7 +10824,7 @@
         <f t="shared" si="8"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G139" s="31">
+      <c r="G139" s="30">
         <f t="shared" si="9"/>
         <v>0.71862775708849003</v>
       </c>
@@ -10825,7 +10857,7 @@
         <f t="shared" si="8"/>
         <v>-2.0132849999999998</v>
       </c>
-      <c r="G140" s="31">
+      <c r="G140" s="30">
         <f t="shared" si="9"/>
         <v>0.11781512337074504</v>
       </c>
@@ -10858,7 +10890,7 @@
         <f t="shared" si="8"/>
         <v>-1.060484</v>
       </c>
-      <c r="G141" s="31">
+      <c r="G141" s="30">
         <f t="shared" si="9"/>
         <v>0.25721697253345743</v>
       </c>
@@ -10891,7 +10923,7 @@
         <f t="shared" si="8"/>
         <v>2.5873239999999997</v>
       </c>
-      <c r="G142" s="31">
+      <c r="G142" s="30">
         <f t="shared" si="9"/>
         <v>0.93004130482566627</v>
       </c>
@@ -10924,7 +10956,7 @@
         <f t="shared" si="8"/>
         <v>1.65818</v>
       </c>
-      <c r="G143" s="31">
+      <c r="G143" s="30">
         <f t="shared" si="9"/>
         <v>0.83999353839886493</v>
       </c>
@@ -10957,7 +10989,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G144" s="31">
+      <c r="G144" s="30">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -10990,7 +11022,7 @@
         <f t="shared" si="8"/>
         <v>-2.9424289999999997</v>
       </c>
-      <c r="G145" s="31">
+      <c r="G145" s="30">
         <f t="shared" si="9"/>
         <v>5.0095560411730328E-2</v>
       </c>
@@ -11023,7 +11055,7 @@
         <f t="shared" si="8"/>
         <v>-0.59591199999999955</v>
       </c>
-      <c r="G146" s="31">
+      <c r="G146" s="30">
         <f t="shared" si="9"/>
         <v>0.35527951967688237</v>
       </c>
@@ -11056,7 +11088,7 @@
         <f t="shared" si="8"/>
         <v>-1.1766269999999996</v>
       </c>
-      <c r="G147" s="31">
+      <c r="G147" s="30">
         <f t="shared" si="9"/>
         <v>0.23565921250881708</v>
       </c>
@@ -11089,7 +11121,7 @@
         <f t="shared" si="8"/>
         <v>-2.3617140000000001</v>
       </c>
-      <c r="G148" s="31">
+      <c r="G148" s="30">
         <f t="shared" si="9"/>
         <v>8.613917401373844E-2</v>
       </c>
@@ -11122,7 +11154,7 @@
         <f t="shared" si="8"/>
         <v>-0.71205499999999966</v>
       </c>
-      <c r="G149" s="31">
+      <c r="G149" s="30">
         <f t="shared" si="9"/>
         <v>0.32914491942336765</v>
       </c>
@@ -11155,7 +11187,7 @@
         <f t="shared" si="8"/>
         <v>0.58923599999999965</v>
       </c>
-      <c r="G150" s="31">
+      <c r="G150" s="30">
         <f t="shared" si="9"/>
         <v>0.64318982942402791</v>
       </c>
@@ -11188,7 +11220,7 @@
         <f t="shared" si="8"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G151" s="31">
+      <c r="G151" s="30">
         <f t="shared" si="9"/>
         <v>0.61611556625706798</v>
       </c>
@@ -11221,7 +11253,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G152" s="31">
+      <c r="G152" s="30">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -11254,7 +11286,7 @@
         <f t="shared" si="8"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G153" s="31">
+      <c r="G153" s="30">
         <f t="shared" si="9"/>
         <v>0.58830191507575313</v>
       </c>
@@ -11287,7 +11319,7 @@
         <f t="shared" si="8"/>
         <v>1.65818</v>
       </c>
-      <c r="G154" s="31">
+      <c r="G154" s="30">
         <f t="shared" si="9"/>
         <v>0.83999353839886493</v>
       </c>
@@ -11320,7 +11352,7 @@
         <f t="shared" si="8"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G155" s="31">
+      <c r="G155" s="30">
         <f t="shared" si="9"/>
         <v>0.92209664362658161</v>
       </c>
@@ -11353,7 +11385,7 @@
         <f t="shared" si="8"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G156" s="31">
+      <c r="G156" s="30">
         <f t="shared" si="9"/>
         <v>0.71862775708849003</v>
       </c>
@@ -11386,7 +11418,7 @@
         <f t="shared" si="8"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G157" s="31">
+      <c r="G157" s="30">
         <f t="shared" si="9"/>
         <v>0.5311256997695083</v>
       </c>
@@ -11419,7 +11451,7 @@
         <f t="shared" si="8"/>
         <v>-2.4778569999999998</v>
       </c>
-      <c r="G158" s="31">
+      <c r="G158" s="30">
         <f t="shared" si="9"/>
         <v>7.7425139115308392E-2</v>
       </c>
@@ -11452,7 +11484,7 @@
         <f t="shared" si="8"/>
         <v>-2.245571</v>
       </c>
-      <c r="G159" s="31">
+      <c r="G159" s="30">
         <f t="shared" si="9"/>
         <v>9.5732186622230264E-2</v>
       </c>
@@ -11485,7 +11517,7 @@
         <f t="shared" si="8"/>
         <v>-2.3617140000000001</v>
       </c>
-      <c r="G160" s="31">
+      <c r="G160" s="30">
         <f t="shared" si="9"/>
         <v>8.613917401373844E-2</v>
       </c>
@@ -11518,7 +11550,7 @@
         <f t="shared" si="8"/>
         <v>-1.1766269999999996</v>
       </c>
-      <c r="G161" s="31">
+      <c r="G161" s="30">
         <f t="shared" si="9"/>
         <v>0.23565921250881708</v>
       </c>
@@ -11551,7 +11583,7 @@
         <f t="shared" si="8"/>
         <v>-1.5250559999999995</v>
       </c>
-      <c r="G162" s="31">
+      <c r="G162" s="30">
         <f t="shared" si="9"/>
         <v>0.17871820394254412</v>
       </c>
@@ -11584,7 +11616,7 @@
         <f t="shared" si="8"/>
         <v>-2.1294279999999999</v>
       </c>
-      <c r="G163" s="31">
+      <c r="G163" s="30">
         <f t="shared" si="9"/>
         <v>0.10626930579372872</v>
       </c>
@@ -11617,7 +11649,7 @@
         <f t="shared" si="8"/>
         <v>-2.4778569999999998</v>
       </c>
-      <c r="G164" s="31">
+      <c r="G164" s="30">
         <f t="shared" si="9"/>
         <v>7.7425139115308392E-2</v>
       </c>
@@ -11650,7 +11682,7 @@
         <f t="shared" si="8"/>
         <v>-2.710143</v>
       </c>
-      <c r="G165" s="31">
+      <c r="G165" s="30">
         <f t="shared" si="9"/>
         <v>6.2377487281883429E-2</v>
       </c>
@@ -11683,7 +11715,7 @@
         <f t="shared" si="8"/>
         <v>-1.4089129999999999</v>
       </c>
-      <c r="G166" s="31">
+      <c r="G166" s="30">
         <f t="shared" si="9"/>
         <v>0.19640556141412555</v>
       </c>
@@ -11716,7 +11748,7 @@
         <f t="shared" si="8"/>
         <v>-1.1766269999999996</v>
       </c>
-      <c r="G167" s="31">
+      <c r="G167" s="30">
         <f t="shared" si="9"/>
         <v>0.23565921250881708</v>
       </c>
@@ -11749,7 +11781,7 @@
         <f t="shared" si="8"/>
         <v>-2.3617140000000001</v>
       </c>
-      <c r="G168" s="31">
+      <c r="G168" s="30">
         <f t="shared" si="9"/>
         <v>8.613917401373844E-2</v>
       </c>
@@ -11782,7 +11814,7 @@
         <f t="shared" si="8"/>
         <v>1.1699509999999997</v>
       </c>
-      <c r="G169" s="31">
+      <c r="G169" s="30">
         <f t="shared" si="9"/>
         <v>0.76313615863231865</v>
       </c>
@@ -11815,7 +11847,7 @@
         <f t="shared" si="8"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G170" s="31">
+      <c r="G170" s="30">
         <f t="shared" si="9"/>
         <v>0.95486431170186958</v>
       </c>
@@ -11848,7 +11880,7 @@
         <f t="shared" si="8"/>
         <v>-0.10762200000000011</v>
       </c>
-      <c r="G171" s="31">
+      <c r="G171" s="30">
         <f t="shared" si="9"/>
         <v>0.47312043935750836</v>
       </c>
@@ -11881,7 +11913,7 @@
         <f t="shared" si="8"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G172" s="31">
+      <c r="G172" s="30">
         <f t="shared" si="9"/>
         <v>0.6945593229186573</v>
       </c>
@@ -11914,7 +11946,7 @@
         <f t="shared" si="8"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G173" s="31">
+      <c r="G173" s="30">
         <f t="shared" si="9"/>
         <v>0.61611556625706798</v>
       </c>
@@ -11947,7 +11979,7 @@
         <f t="shared" si="8"/>
         <v>-2.0132849999999998</v>
       </c>
-      <c r="G174" s="31">
+      <c r="G174" s="30">
         <f t="shared" si="9"/>
         <v>0.11781512337074504</v>
       </c>
@@ -11980,7 +12012,7 @@
         <f t="shared" si="8"/>
         <v>0.58923599999999965</v>
       </c>
-      <c r="G175" s="31">
+      <c r="G175" s="30">
         <f t="shared" si="9"/>
         <v>0.64318982942402791</v>
       </c>
@@ -12013,7 +12045,7 @@
         <f t="shared" si="8"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G176" s="31">
+      <c r="G176" s="30">
         <f t="shared" si="9"/>
         <v>0.6945593229186573</v>
       </c>
@@ -12046,7 +12078,7 @@
         <f t="shared" si="8"/>
         <v>-2.5939999999999999</v>
       </c>
-      <c r="G177" s="31">
+      <c r="G177" s="30">
         <f t="shared" si="9"/>
         <v>6.952556982397444E-2</v>
       </c>
@@ -12079,7 +12111,7 @@
         <f t="shared" si="8"/>
         <v>-2.245571</v>
       </c>
-      <c r="G178" s="31">
+      <c r="G178" s="30">
         <f t="shared" si="9"/>
         <v>9.5732186622230264E-2</v>
       </c>
@@ -12112,7 +12144,7 @@
         <f t="shared" si="8"/>
         <v>-2.8262859999999996</v>
       </c>
-      <c r="G179" s="31">
+      <c r="G179" s="30">
         <f t="shared" si="9"/>
         <v>5.5920148369076397E-2</v>
       </c>
@@ -12145,7 +12177,7 @@
         <f t="shared" si="8"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G180" s="31">
+      <c r="G180" s="30">
         <f t="shared" si="9"/>
         <v>0.89309496480980888</v>
       </c>
@@ -12178,7 +12210,7 @@
         <f t="shared" si="8"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G181" s="31">
+      <c r="G181" s="30">
         <f t="shared" si="9"/>
         <v>0.5311256997695083</v>
       </c>
@@ -12216,16 +12248,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -12389,7 +12421,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="11"/>
+    <col min="2" max="3" width="10.83203125" style="10"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
@@ -12401,10 +12433,10 @@
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12412,22 +12444,22 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>10</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="28"/>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>100</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -12441,16 +12473,16 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1600</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="L4" s="1">
         <v>-10</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <f>1/(1+EXP(-L4))</f>
         <v>4.5397868702434395E-5</v>
       </c>
@@ -12459,16 +12491,16 @@
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1500</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>-9.5</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="28">
         <f t="shared" ref="M5:M44" si="0">1/(1+EXP(-L5))</f>
         <v>7.4846227510611229E-5</v>
       </c>
@@ -12477,16 +12509,16 @@
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>3300</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>-9</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="28">
         <f t="shared" si="0"/>
         <v>1.2339457598623172E-4</v>
       </c>
@@ -12495,16 +12527,16 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>200</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>-8.5</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <f t="shared" si="0"/>
         <v>2.0342697805520653E-4</v>
       </c>
@@ -12513,16 +12545,16 @@
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1800</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>-8</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="28">
         <f t="shared" si="0"/>
         <v>3.3535013046647811E-4</v>
       </c>
@@ -12531,16 +12563,16 @@
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1700</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>-7.5</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="28">
         <f t="shared" si="0"/>
         <v>5.5277863692359955E-4</v>
       </c>
@@ -12549,16 +12581,16 @@
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>300</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>-7</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <f t="shared" si="0"/>
         <v>9.1105119440064539E-4</v>
       </c>
@@ -12567,16 +12599,16 @@
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>1800</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>-6.5</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="28">
         <f t="shared" si="0"/>
         <v>1.5011822567369917E-3</v>
       </c>
@@ -12585,16 +12617,16 @@
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>100</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>-6</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="28">
         <f t="shared" si="0"/>
         <v>2.4726231566347743E-3</v>
       </c>
@@ -12603,16 +12635,16 @@
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>500</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>-5.5</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="28">
         <f t="shared" si="0"/>
         <v>4.0701377158961277E-3</v>
       </c>
@@ -12621,16 +12653,16 @@
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>3000</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>-5</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="28">
         <f t="shared" si="0"/>
         <v>6.6928509242848554E-3</v>
       </c>
@@ -12639,16 +12671,16 @@
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>20</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>-4.5</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <f t="shared" si="0"/>
         <v>1.098694263059318E-2</v>
       </c>
@@ -12657,16 +12689,16 @@
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>200</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>-4</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="28">
         <f t="shared" si="0"/>
         <v>1.7986209962091559E-2</v>
       </c>
@@ -12675,10 +12707,10 @@
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>700</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="F17" t="s">
@@ -12687,7 +12719,7 @@
       <c r="L17" s="1">
         <v>-3.5</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="28">
         <f t="shared" si="0"/>
         <v>2.9312230751356319E-2</v>
       </c>
@@ -12696,10 +12728,10 @@
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>1600</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="F18" t="s">
@@ -12708,14 +12740,14 @@
       <c r="G18" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
       <c r="I18" t="s">
         <v>105</v>
       </c>
       <c r="L18" s="1">
         <v>-3</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="28">
         <f t="shared" si="0"/>
         <v>4.7425873177566781E-2</v>
       </c>
@@ -12724,16 +12756,16 @@
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>1900</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>-2.5</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="28">
         <f t="shared" si="0"/>
         <v>7.5858180021243546E-2</v>
       </c>
@@ -12742,10 +12774,10 @@
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>100</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>0</v>
       </c>
       <c r="F20" t="s">
@@ -12754,7 +12786,7 @@
       <c r="L20" s="1">
         <v>-2</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="28">
         <f t="shared" si="0"/>
         <v>0.11920292202211755</v>
       </c>
@@ -12763,10 +12795,10 @@
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>400</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>0</v>
       </c>
       <c r="F21" t="s">
@@ -12775,7 +12807,7 @@
       <c r="L21" s="1">
         <v>-1.5</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="28">
         <f t="shared" si="0"/>
         <v>0.18242552380635635</v>
       </c>
@@ -12784,19 +12816,19 @@
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>2700</v>
       </c>
-      <c r="C22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="L22" s="1">
         <v>-1</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="28">
         <f t="shared" si="0"/>
         <v>0.2689414213699951</v>
       </c>
@@ -12805,17 +12837,17 @@
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>200</v>
       </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16"/>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15"/>
       <c r="L23" s="1">
         <v>-0.5</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="28">
         <f t="shared" si="0"/>
         <v>0.37754066879814541</v>
       </c>
@@ -12824,16 +12856,16 @@
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>300</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>0</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="28">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -12842,10 +12874,10 @@
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>500</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -12854,7 +12886,7 @@
       <c r="L25" s="1">
         <v>0.5</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="28">
         <f t="shared" si="0"/>
         <v>0.62245933120185459</v>
       </c>
@@ -12863,10 +12895,10 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>2500</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>1</v>
       </c>
       <c r="G26" t="s">
@@ -12875,7 +12907,7 @@
       <c r="L26" s="1">
         <v>1</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="28">
         <f t="shared" si="0"/>
         <v>0.7310585786300049</v>
       </c>
@@ -12884,16 +12916,16 @@
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>1400</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>1.5</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="28">
         <f t="shared" si="0"/>
         <v>0.81757447619364365</v>
       </c>
@@ -12902,16 +12934,16 @@
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>700</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>0</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="28">
         <f t="shared" si="0"/>
         <v>0.88079707797788231</v>
       </c>
@@ -12920,16 +12952,16 @@
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>1700</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="L29" s="1">
         <v>2.5</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="28">
         <f t="shared" si="0"/>
         <v>0.92414181997875655</v>
       </c>
@@ -12938,16 +12970,16 @@
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>1400</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>1</v>
       </c>
       <c r="L30" s="1">
         <v>3</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="28">
         <f t="shared" si="0"/>
         <v>0.95257412682243336</v>
       </c>
@@ -12956,16 +12988,16 @@
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>1600</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>1</v>
       </c>
       <c r="L31" s="1">
         <v>3.5</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="28">
         <f t="shared" si="0"/>
         <v>0.97068776924864364</v>
       </c>
@@ -12974,16 +13006,16 @@
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>400</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>0</v>
       </c>
       <c r="L32" s="1">
         <v>4</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="28">
         <f t="shared" si="0"/>
         <v>0.98201379003790845</v>
       </c>
@@ -12992,16 +13024,16 @@
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>200</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>0</v>
       </c>
       <c r="L33" s="1">
         <v>4.5</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="28">
         <f t="shared" si="0"/>
         <v>0.98901305736940681</v>
       </c>
@@ -13010,16 +13042,16 @@
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>1600</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="1">
         <v>5</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="28">
         <f t="shared" si="0"/>
         <v>0.99330714907571527</v>
       </c>
@@ -13028,16 +13060,16 @@
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>2200</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>5.5</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="28">
         <f t="shared" si="0"/>
         <v>0.99592986228410396</v>
       </c>
@@ -13046,16 +13078,16 @@
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>1900</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="1">
         <v>6</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="28">
         <f t="shared" si="0"/>
         <v>0.99752737684336534</v>
       </c>
@@ -13064,16 +13096,16 @@
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>200</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>0</v>
       </c>
       <c r="L37" s="1">
         <v>6.5</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="28">
         <f t="shared" si="0"/>
         <v>0.99849881774326299</v>
       </c>
@@ -13082,16 +13114,16 @@
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>1200</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>0</v>
       </c>
       <c r="L38" s="1">
         <v>7</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="28">
         <f t="shared" si="0"/>
         <v>0.9990889488055994</v>
       </c>
@@ -13100,16 +13132,16 @@
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>1700</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="1">
         <v>7.5</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="28">
         <f t="shared" si="0"/>
         <v>0.9994472213630764</v>
       </c>
@@ -13118,16 +13150,16 @@
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>1500</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>1</v>
       </c>
       <c r="L40" s="1">
         <v>8</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M40" s="28">
         <f t="shared" si="0"/>
         <v>0.99966464986953363</v>
       </c>
@@ -13136,16 +13168,16 @@
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>2100</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>1</v>
       </c>
       <c r="L41" s="1">
         <v>8.5</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="28">
         <f t="shared" si="0"/>
         <v>0.9997965730219448</v>
       </c>
@@ -13154,16 +13186,16 @@
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>400</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>9</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="28">
         <f t="shared" si="0"/>
         <v>0.99987660542401369</v>
       </c>
@@ -13172,16 +13204,16 @@
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>800</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>9.5</v>
       </c>
-      <c r="M43" s="29">
+      <c r="M43" s="28">
         <f t="shared" si="0"/>
         <v>0.99992515377248947</v>
       </c>
@@ -13190,16 +13222,16 @@
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>400</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>0</v>
       </c>
       <c r="L44" s="1">
         <v>10</v>
       </c>
-      <c r="M44" s="29">
+      <c r="M44" s="28">
         <f t="shared" si="0"/>
         <v>0.99995460213129761</v>
       </c>
@@ -13208,10 +13240,10 @@
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>500</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>1</v>
       </c>
     </row>
@@ -13219,10 +13251,10 @@
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>1000</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>0</v>
       </c>
     </row>
@@ -13230,10 +13262,10 @@
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>300</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>0</v>
       </c>
     </row>
@@ -13241,10 +13273,10 @@
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>800</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>1</v>
       </c>
     </row>
@@ -13258,7 +13290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1958CD-CB22-E64A-A1AC-6160771FCCD9}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -13299,24 +13331,24 @@
       <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="41">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="41">
         <v>11</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="41">
         <f>RANK(G2,$G$2:$G$20,1)</f>
         <v>17</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f>SQRT((B2-$B$21)^2+(C2-$C$21)^2)</f>
         <v>44.687805943008662</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13324,20 +13356,20 @@
       <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="39">
         <v>48</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="39">
         <v>59</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="39">
         <f t="shared" ref="D3:D20" si="0">RANK(G3,$G$2:$G$20,1)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G20" si="1">SQRT((B3-$B$21)^2+(C3-$C$21)^2)</f>
         <v>20.615528128088304</v>
       </c>
@@ -13355,20 +13387,20 @@
       <c r="A4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="38">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="38">
         <v>20</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" si="1"/>
         <v>34.409301068170507</v>
       </c>
@@ -13386,20 +13418,20 @@
       <c r="A5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="38">
         <v>42</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="38">
         <v>78</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>38.052595180880893</v>
       </c>
@@ -13414,20 +13446,20 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="36">
+      <c r="B6" s="39">
         <v>24</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="39">
         <v>48</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>17.888543819998318</v>
       </c>
@@ -13448,27 +13480,27 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
+      <c r="B7" s="38">
         <v>36</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="38">
         <v>90</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>50.159744815937813</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="V7" t="s">
@@ -13479,58 +13511,58 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="36">
+      <c r="B8" s="39">
         <v>24</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="39">
         <v>28</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
+      <c r="B9" s="38">
         <v>36</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="38">
         <v>69</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>29.274562336608895</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="9">
+      <c r="B10" s="38">
         <v>12</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="38">
         <v>30</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>29.732137494637012</v>
       </c>
@@ -13545,24 +13577,24 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="36">
+      <c r="B11" s="39">
         <v>30</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="39">
         <v>52</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>15.620499351813308</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>89</v>
       </c>
       <c r="V11" t="s">
@@ -13573,20 +13605,20 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
+      <c r="B12" s="38">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="38">
         <v>12</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>39.597979746446661</v>
       </c>
@@ -13598,153 +13630,153 @@
       <c r="A13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="39">
         <v>48</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="39">
         <v>43</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
         <v>8.5440037453175304</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
+      <c r="B14" s="38">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="38">
         <v>15</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
         <v>37.536648758246919</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="9">
+      <c r="B15" s="38">
         <v>24</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="38">
         <v>11</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
         <v>33.120990323358392</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
+      <c r="B16" s="38">
         <v>15</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="38">
         <v>14</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <f t="shared" si="1"/>
         <v>36.069377593742864</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9">
+      <c r="B17" s="38">
         <v>24</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="38">
         <v>12</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
         <v>32.249030993194197</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="9">
+      <c r="B18" s="38">
         <v>24</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="38">
         <v>24</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f t="shared" si="1"/>
         <v>22.627416997969522</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="9">
+      <c r="B19" s="38">
         <v>30</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="38">
         <v>80</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f t="shared" si="1"/>
         <v>41.231056256176608</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="9">
+      <c r="B20" s="38">
         <v>24</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="38">
         <v>125</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <f t="shared" si="1"/>
         <v>86.49277426467485</v>
       </c>
@@ -13753,15 +13785,33 @@
       <c r="A21" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>40</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>40</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="22" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <f>(40-6)^2</f>
+        <v>1156</v>
+      </c>
+      <c r="C23" s="1">
+        <f>(40-11)^2</f>
+        <v>841</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -13798,10 +13848,10 @@
       <c r="C27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="37" t="s">
         <v>150</v>
       </c>
     </row>
@@ -13809,15 +13859,15 @@
       <c r="C28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13827,4 +13877,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C08E4B-B79D-DF48-B97F-DD63A5301EAB}">
+  <dimension ref="C2:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <f>(E5-E3)^2</f>
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:G7" si="0">(F5-F3)^2</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f>SQRT(E7+F7+G7)</f>
+        <v>5.4772255750516612</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>